--- a/archivos/GSNAB 2024 EXCEL.xlsx
+++ b/archivos/GSNAB 2024 EXCEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\usuarios_plataformas_gsnab\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B251C2-B3A1-46D7-B94E-CE1664922DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E98B25-9999-4C98-BB7B-39FEF080EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8A6EED03-1CA3-42F8-BCAD-B15A5DB18A3D}"/>
   </bookViews>
@@ -18,6 +18,12 @@
     <sheet name="SECOND A" sheetId="8" r:id="rId3"/>
     <sheet name="SECOND B" sheetId="9" r:id="rId4"/>
     <sheet name="SECOND C" sheetId="10" r:id="rId5"/>
+    <sheet name="THIRD A" sheetId="14" r:id="rId6"/>
+    <sheet name="THIRD B" sheetId="15" r:id="rId7"/>
+    <sheet name="THIRD C " sheetId="17" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="13" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="273">
   <si>
     <t>AARON DAVID BUSTOS LARA</t>
   </si>
@@ -847,6 +853,18 @@
   </si>
   <si>
     <t>VACIO</t>
+  </si>
+  <si>
+    <t>THIRD A</t>
+  </si>
+  <si>
+    <t>PRUEBA3</t>
+  </si>
+  <si>
+    <t>PRUEBA2</t>
+  </si>
+  <si>
+    <t>PRUEBA1</t>
   </si>
 </sst>
 </file>
@@ -1303,15 +1321,15 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
@@ -2990,12 +3008,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6020FB4-7B10-4D32-8D26-BE6B8DB469BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F495D41B-8709-4826-80D1-9AC3BB513EE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3DFA79-45A4-4657-8911-559B2E079BA6}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4508,7 +4550,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5962,7 +6004,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7298,7 +7340,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8805,4 +8847,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA89722-CEEF-401C-80DD-EA689F685C5C}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1111</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6">
+        <v>165701112</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7D31EB-3776-4D1A-A9E3-1D1911EFA8A5}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2222</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6">
+        <v>165701112</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F418912-9790-4BBF-A915-8563AA62D022}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>333</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6">
+        <v>165701112</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1016915789</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C3A3D-7CBD-4294-846E-DDB2A04CB9C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>